--- a/data/c6/cfus_oa.xlsx
+++ b/data/c6/cfus_oa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">Experiment: C6 continuous 28,43,38,33  Yolanda setup     Plates:</t>
   </si>
@@ -43,13 +43,43 @@
     <t xml:space="preserve">M6</t>
   </si>
   <si>
+    <t xml:space="preserve">27|28|26</t>
+  </si>
+  <si>
     <t xml:space="preserve">M1</t>
   </si>
   <si>
+    <t xml:space="preserve">0|0|0</t>
+  </si>
+  <si>
     <t xml:space="preserve">M7</t>
   </si>
   <si>
     <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33|28|27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18|21|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23|26|24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43|54|50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5|9|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17|21|25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18|20|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15|11|15</t>
   </si>
 </sst>
 </file>
@@ -186,8 +216,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,108 +258,180 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
